--- a/biology/Botanique/Aquilegia_bertolonii/Aquilegia_bertolonii.xlsx
+++ b/biology/Botanique/Aquilegia_bertolonii/Aquilegia_bertolonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ancolie de Bertoloni (Aquilegia bertolonii) est une espèce de plante herbacée vivace de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ancolie de Bertoloni se rencontre dans les Préalpes et les Alpes françaises et italiennes. Généralement on la trouve dans des endroits bien plus exposés à la lumière directe du soleil que d'autres ancolies. Par exemple, on la rencontre en limite de pierrier dans le Mont Ventoux. La fleur est d'un bleu homogène et vif. On la distingue d'autres ancolies par ses pétales plus longs que ses étamines qui sont jaune vif. Ses pétales forment, dans leur partie arrière, des éperons, que l'ancolie de Bertoloni a plus courbés que d'autres espèces du genre Aquilegia.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>organes reproducteurs :
 Type d'inflorescence :  Glossaire botanique
@@ -581,7 +597,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plante protégée au niveau national en France (Arr. du 15 septembre 1982 et Arr. du 31 août 1995).</t>
         </is>
@@ -611,7 +629,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique des Préalpes françaises (Mont Ventoux),  Alpes françaises et italiennes. Différente de l'Ancolie de Bertoloni, on rencontre dans le massif alpin l'Aquilegia alpina (ancolie des Alpes), qui fleurit un peu plus tard et n'a pas les éperons aussi recourbés ni les anthères jaune vif.
 </t>
